--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6.33954589246631E-13</v>
+        <v>3.8487633065266E-19</v>
       </c>
       <c r="E2">
-        <v>6.33954589246631E-13</v>
+        <v>3.8487633065266E-19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999993134057</v>
+        <v>0.9999999635494419</v>
       </c>
       <c r="E3">
-        <v>0.9999999993134057</v>
+        <v>0.9999999635494419</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9999999995468982</v>
+        <v>0.9999999999213351</v>
       </c>
       <c r="E4">
-        <v>4.531017783193647E-10</v>
+        <v>7.866485240981547E-11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.5906737063907993</v>
+        <v>0.635671400665928</v>
       </c>
       <c r="E5">
-        <v>0.4093262936092007</v>
+        <v>0.364328599334072</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -503,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9999978217920515</v>
+        <v>0.9986787667894935</v>
       </c>
       <c r="E6">
-        <v>2.178207948455579E-06</v>
+        <v>0.001321233210506478</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -531,13 +531,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9966577090463092</v>
+        <v>0.9963973763030217</v>
       </c>
       <c r="E8">
-        <v>0.003342290953690763</v>
+        <v>0.00360262369697828</v>
       </c>
       <c r="F8">
-        <v>3.089874029159546</v>
+        <v>2.512187957763672</v>
       </c>
       <c r="G8">
         <v>0.8571428571428571</v>
